--- a/Class Demo Files/Excel Ch2b/IFPractice.xlsx
+++ b/Class Demo Files/Excel Ch2b/IFPractice.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Allen\BUS140 OUT\Class Demo Files\Excel Ch2b\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\github\BUS 140\BUS-140\Class Demo Files\Excel Ch2b\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15180" windowHeight="8070"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -1012,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1153,7 +1153,10 @@
       <c r="H7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="16"/>
+      <c r="I7" s="16">
+        <f>IF(H7 = "P",0,E7)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
@@ -1183,7 +1186,10 @@
       <c r="H8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="16"/>
+      <c r="I8" s="16">
+        <f t="shared" ref="I8:I14" si="3">IF(H8 = "P",0,E8)</f>
+        <v>371.86714052925907</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
@@ -1213,7 +1219,10 @@
       <c r="H9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="16"/>
+      <c r="I9" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
@@ -1243,7 +1252,10 @@
       <c r="H10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="16"/>
+      <c r="I10" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
@@ -1273,7 +1285,10 @@
       <c r="H11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="16"/>
+      <c r="I11" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
@@ -1303,7 +1318,10 @@
       <c r="H12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="16"/>
+      <c r="I12" s="16">
+        <f t="shared" si="3"/>
+        <v>262.94138789899029</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
@@ -1333,7 +1351,10 @@
       <c r="H13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="16"/>
+      <c r="I13" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
@@ -1363,7 +1384,10 @@
       <c r="H14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="16"/>
+      <c r="I14" s="16">
+        <f t="shared" si="3"/>
+        <v>287.70021180658637</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -1397,8 +1421,16 @@
       <c r="B24">
         <v>20000</v>
       </c>
+      <c r="C24">
+        <f>IF(B24 &gt;= 20000,B24*0.1,B24*0.05)</f>
+        <v>2000</v>
+      </c>
       <c r="D24">
         <v>15000</v>
+      </c>
+      <c r="E24">
+        <f>IF(D24 &gt;= 20000,D24*0.1,D24*0.05)</f>
+        <v>750</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1408,8 +1440,16 @@
       <c r="B25">
         <v>35000</v>
       </c>
+      <c r="C25">
+        <f>IF(B25 &gt;= 25000,B25*0.15,B25*0.1)</f>
+        <v>5250</v>
+      </c>
       <c r="D25">
         <v>35000</v>
+      </c>
+      <c r="E25">
+        <f>IF(D25 &gt;= 25000,D25*0.15,D25*0.1)</f>
+        <v>5250</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1448,6 +1488,10 @@
       </c>
       <c r="B40">
         <v>20000</v>
+      </c>
+      <c r="C40">
+        <f>IF(B40 &gt;= 20000,B40*0.1,B40*0.05) + B40</f>
+        <v>22000</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
